--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\UiPath\NH01_RetrieveReport\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082B3F82-E796-4B7B-9032-3CFD34D026C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E15059A-E8CA-490B-99D0-254BBD166628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2670" yWindow="5055" windowWidth="22440" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -39,6 +39,24 @@
   </si>
   <si>
     <t>OrchestratorAssetFolder</t>
+  </si>
+  <si>
+    <t>DBConnectionString</t>
+  </si>
+  <si>
+    <t>DispatcherTestMode</t>
+  </si>
+  <si>
+    <t>SendMail_TestMode</t>
+  </si>
+  <si>
+    <t>TestMode</t>
+  </si>
+  <si>
+    <t>SQLQuery</t>
+  </si>
+  <si>
+    <t>Select *</t>
   </si>
 </sst>
 </file>
@@ -90,11 +108,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -414,7 +435,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -460,8 +481,12 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:26">
@@ -1478,7 +1503,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1525,9 +1550,30 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="2" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\UiPath\NH01_RetrieveReport\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E15059A-E8CA-490B-99D0-254BBD166628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD98AAF1-C397-4F96-B664-EA392632A517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2670" yWindow="5055" windowWidth="22440" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -434,7 +434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1502,8 +1502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\UiPath\NH01_RetrieveReport\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD98AAF1-C397-4F96-B664-EA392632A517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6595E0-C632-4054-AB10-2C3CDCD14070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="990" yWindow="4800" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -51,12 +51,6 @@
   </si>
   <si>
     <t>TestMode</t>
-  </si>
-  <si>
-    <t>SQLQuery</t>
-  </si>
-  <si>
-    <t>Select *</t>
   </si>
 </sst>
 </file>
@@ -434,8 +428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -481,12 +475,8 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:26">
@@ -1502,7 +1492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\UiPath\NH01_RetrieveReport\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6595E0-C632-4054-AB10-2C3CDCD14070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485FE78F-2E62-4626-8742-296BDEF5F140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="990" yWindow="4800" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="38700" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Name</t>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>OrchestratorAssetFolder</t>
-  </si>
-  <si>
-    <t>DBConnectionString</t>
   </si>
   <si>
     <t>DispatcherTestMode</t>
@@ -428,8 +425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1490,10 +1487,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1541,29 +1538,22 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>6</v>
+      <c r="A2" t="s">
+        <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
@@ -2559,7 +2549,6 @@
     <row r="997" ht="14.25" customHeight="1"/>
     <row r="998" ht="14.25" customHeight="1"/>
     <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\UiPath\NH01_RetrieveReport\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\UiPath\NH07_UpdateCourse\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485FE78F-2E62-4626-8742-296BDEF5F140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB31FB20-E056-4A31-BDE7-25253A897B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="38700" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9630" yWindow="4155" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>Name</t>
   </si>
@@ -39,15 +39,6 @@
   </si>
   <si>
     <t>OrchestratorAssetFolder</t>
-  </si>
-  <si>
-    <t>DispatcherTestMode</t>
-  </si>
-  <si>
-    <t>SendMail_TestMode</t>
-  </si>
-  <si>
-    <t>TestMode</t>
   </si>
 </sst>
 </file>
@@ -425,8 +416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1489,8 +1480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1537,21 +1528,10 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-    </row>
+    <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
